--- a/biology/Médecine/Guillaume_l'Anglais/Guillaume_l'Anglais.xlsx
+++ b/biology/Médecine/Guillaume_l'Anglais/Guillaume_l'Anglais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guillaume_l%27Anglais</t>
+          <t>Guillaume_l'Anglais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillaume l'Anglais (en latin Guillelmus Anglicus[1]) est un médecin anglais du XIIIe siècle établi à Marseille.
-Il est principalement connu par son traité médico-astrologique De urina non visa[2],[3]. L'auteur y conseille l'emploi de l’horoscope du patient pour en déduire son état de santé si on n'a pas accès à son urine, comme il le fallait normalement[4], afin de procéder au diagnostic et au pronostic. On sait que cet ouvrage était toujours consulté à l'université de Bologne en 1405[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume l'Anglais (en latin Guillelmus Anglicus) est un médecin anglais du XIIIe siècle établi à Marseille.
+Il est principalement connu par son traité médico-astrologique De urina non visa,. L'auteur y conseille l'emploi de l’horoscope du patient pour en déduire son état de santé si on n'a pas accès à son urine, comme il le fallait normalement, afin de procéder au diagnostic et au pronostic. On sait que cet ouvrage était toujours consulté à l'université de Bologne en 1405.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guillaume_l%27Anglais</t>
+          <t>Guillaume_l'Anglais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astrologia[6]
-Judicium de urina non visa (1219)[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astrologia
+Judicium de urina non visa (1219)
 (fr + la) Guillaume l'Anglais et Laurence Moulinier-Brogi (éd. et trad.), Guillaume l’Anglais, le frondeur de l’uroscopie médiévale (XIIIe siècle) (édition commentée et traduction du De urina non visa), Genève, Droz, coll. « Hautes études médiévales et modernes » (no 101), 2011, 290 p. (ISBN 978-2-600-01363-5 et 2-600-01363-6).
-Tabula de stellis fixis[6]
-Tractatus de meteoris (vers 1230)[6]
-Selon José María Millás Vallicrosa[7], Guillaume l'Anglais a écrit en 1231 un traité sur la saphea.
-Lynn Thorndike a vu un manuscrit disant qu'il aurait aussi traduit de l'arabe au latin Le très grand secret de Catenus, roi des Perses, au sujet de la vertu de l'aigle[8].
+Tabula de stellis fixis
+Tractatus de meteoris (vers 1230)
+Selon José María Millás Vallicrosa, Guillaume l'Anglais a écrit en 1231 un traité sur la saphea.
+Lynn Thorndike a vu un manuscrit disant qu'il aurait aussi traduit de l'arabe au latin Le très grand secret de Catenus, roi des Perses, au sujet de la vertu de l'aigle.
 </t>
         </is>
       </c>
